--- a/src/test/resources/file/oneField.xlsx
+++ b/src/test/resources/file/oneField.xlsx
@@ -52,12 +52,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -103,7 +109,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -113,6 +119,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,9 +436,10 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,6 +448,9 @@
       </c>
       <c r="C1" s="3">
         <v>6</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3760264453741</v>
       </c>
     </row>
   </sheetData>
